--- a/initial_schedule_output.xlsx
+++ b/initial_schedule_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -503,32 +503,32 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>408.3762715753413</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G2" t="n">
-        <v>1.367399112076504</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>970.2</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S3AX04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -538,32 +538,32 @@
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>458.5508180763908</v>
+        <v>471.0267981311363</v>
       </c>
       <c r="G3" t="n">
-        <v>1.505205954657989</v>
+        <v>1.511823288806421</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>970.2</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S6BG14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -573,32 +573,32 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>410.0818887794026</v>
+        <v>481.2384870768861</v>
       </c>
       <c r="G4" t="n">
-        <v>1.302226153983901</v>
+        <v>1.549056693188665</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1663.2</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S6BG11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -608,32 +608,32 @@
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>473.8901876161138</v>
+        <v>479.286553196587</v>
       </c>
       <c r="G5" t="n">
-        <v>1.550206914081239</v>
+        <v>1.542566592537171</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>1544.4</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S5AW13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -643,32 +643,32 @@
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>410.0818887794026</v>
+        <v>471.8832645355894</v>
       </c>
       <c r="G6" t="n">
-        <v>1.302226153983901</v>
+        <v>1.410162721706538</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>460.8700000000001</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -678,27 +678,27 @@
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8901876161138</v>
+        <v>450</v>
       </c>
       <c r="G7" t="n">
-        <v>1.550206914081239</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>1188</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,27 +713,27 @@
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>475.0824972033116</v>
+        <v>450</v>
       </c>
       <c r="G8" t="n">
-        <v>1.540128031975307</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>1663.2</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -748,27 +748,27 @@
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>410.0818887794026</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G9" t="n">
-        <v>1.302226153983901</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H9" t="n">
         <v>13</v>
       </c>
       <c r="I9" t="n">
-        <v>1544.4</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S3AX04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -783,27 +783,27 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>484.2538258973078</v>
+        <v>471.0267981311363</v>
       </c>
       <c r="G10" t="n">
-        <v>1.515093704135877</v>
+        <v>1.511823288806421</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>923.9999999999999</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -818,16 +818,16 @@
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>493.2032472949478</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4790448823363</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H11" t="n">
         <v>11</v>
       </c>
       <c r="I11" t="n">
-        <v>1016.4</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="12">
@@ -868,7 +868,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -888,16 +888,16 @@
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>467.5533513160689</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37853030239152</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>1089</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="14">
@@ -913,7 +913,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -929,26 +929,26 @@
         <v>1.410162721706538</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>990</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6C297</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -958,32 +958,32 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>467.5533513160689</v>
+        <v>408.3762715753413</v>
       </c>
       <c r="G15" t="n">
-        <v>1.37853030239152</v>
+        <v>1.367399112076504</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>1287</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S6C298</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -993,32 +993,32 @@
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>471.8832645355894</v>
+        <v>475.5922896583338</v>
       </c>
       <c r="G16" t="n">
-        <v>1.410162721706538</v>
+        <v>1.622174955742277</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>1386</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1028,32 +1028,32 @@
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>458.5508180763908</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G17" t="n">
-        <v>1.505205954657989</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>970.2</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1063,32 +1063,32 @@
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>408.3762715753413</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G18" t="n">
-        <v>1.367399112076504</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I18" t="n">
-        <v>970.2</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1098,32 +1098,32 @@
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>467.5533513160689</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37853030239152</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>1089</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1133,27 +1133,27 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>471.8832645355894</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G20" t="n">
-        <v>1.410162721706538</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>990</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1168,32 +1168,32 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>467.5533513160689</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G21" t="n">
-        <v>1.37853030239152</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>1287</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1203,32 +1203,32 @@
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>471.8832645355894</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G22" t="n">
-        <v>1.410162721706538</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
-        <v>1386</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S3AX01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1238,22 +1238,22 @@
         <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>458.5508180763908</v>
+        <v>476.3593116545306</v>
       </c>
       <c r="G23" t="n">
-        <v>1.505205954657989</v>
+        <v>1.546496658710454</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>970.2</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S6C298</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>408.3762715753413</v>
+        <v>475.5922896583338</v>
       </c>
       <c r="G24" t="n">
-        <v>1.367399112076504</v>
+        <v>1.622174955742277</v>
       </c>
       <c r="H24" t="n">
         <v>7</v>
@@ -1288,17 +1288,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6C334</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1308,22 +1308,22 @@
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>467.5533513160689</v>
+        <v>458.5508180763908</v>
       </c>
       <c r="G25" t="n">
-        <v>1.37853030239152</v>
+        <v>1.505205954657989</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>1089</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1343,10 +1343,10 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>471.8832645355894</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G26" t="n">
-        <v>1.410162721706538</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H26" t="n">
         <v>10</v>
@@ -1358,7 +1358,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1378,27 +1378,27 @@
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>467.5533513160689</v>
+        <v>450</v>
       </c>
       <c r="G27" t="n">
-        <v>1.37853030239152</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
-        <v>1287</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1413,32 +1413,32 @@
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>471.8832645355894</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G28" t="n">
-        <v>1.410162721706538</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H28" t="n">
         <v>14</v>
       </c>
       <c r="I28" t="n">
-        <v>1386</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1448,22 +1448,22 @@
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>458.5508180763908</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G29" t="n">
-        <v>1.505205954657989</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
-        <v>970.2</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S6C298</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>408.3762715753413</v>
+        <v>475.5922896583338</v>
       </c>
       <c r="G30" t="n">
-        <v>1.367399112076504</v>
+        <v>1.622174955742277</v>
       </c>
       <c r="H30" t="n">
         <v>7</v>
@@ -1498,17 +1498,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6C334</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1518,27 +1518,27 @@
         <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>494.9874225687377</v>
+        <v>458.5508180763908</v>
       </c>
       <c r="G31" t="n">
-        <v>1.443982454918312</v>
+        <v>1.505205954657989</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>923.9999999999999</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1553,22 +1553,22 @@
         <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>493.2032472949478</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4790448823363</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>1016.4</v>
+        <v>990</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1588,27 +1588,27 @@
         <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>485.3002327497227</v>
+        <v>450</v>
       </c>
       <c r="G33" t="n">
-        <v>1.403136625075225</v>
+        <v>1.44</v>
       </c>
       <c r="H33" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>1386</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1623,32 +1623,32 @@
         <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>489.6578141156763</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G34" t="n">
-        <v>1.441439779313621</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H34" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
-        <v>1287</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>S6BG13</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1658,57 +1658,57 @@
         <v>5</v>
       </c>
       <c r="F35" t="n">
-        <v>482.7769435909113</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G35" t="n">
-        <v>1.562193803712957</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
-        <v>1155</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>S6BG08</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
         <v>5</v>
       </c>
       <c r="F36" t="n">
-        <v>477.2618000254242</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G36" t="n">
-        <v>1.534662132252618</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>1155</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S3AX04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1728,10 +1728,10 @@
         <v>5</v>
       </c>
       <c r="F37" t="n">
-        <v>475.0824972033116</v>
+        <v>471.0267981311363</v>
       </c>
       <c r="G37" t="n">
-        <v>1.540128031975307</v>
+        <v>1.511823288806421</v>
       </c>
       <c r="H37" t="n">
         <v>10</v>
@@ -1743,17 +1743,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1763,27 +1763,27 @@
         <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>471.0267981311363</v>
+        <v>450</v>
       </c>
       <c r="G38" t="n">
-        <v>1.511823288806421</v>
+        <v>1.44</v>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>1300</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>S5AW05</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1798,27 +1798,27 @@
         <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>450</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G39" t="n">
-        <v>1.44</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>1386</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1833,102 +1833,102 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>467.5533513160689</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G40" t="n">
-        <v>1.37853030239152</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>1287</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>S6BG12</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
         <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>478.1907425638097</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G41" t="n">
-        <v>1.532140321380832</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>1155</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>S6BG10</t>
+          <t>S3AX01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>479.6506251337161</v>
+        <v>476.3593116545306</v>
       </c>
       <c r="G42" t="n">
-        <v>1.547471669925776</v>
+        <v>1.546496658710454</v>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>1100</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1938,27 +1938,27 @@
         <v>5</v>
       </c>
       <c r="F43" t="n">
-        <v>489.6578141156763</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G43" t="n">
-        <v>1.441439779313621</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H43" t="n">
         <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>1386</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1973,16 +1973,16 @@
         <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>471.8832645355894</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G44" t="n">
-        <v>1.410162721706538</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H44" t="n">
         <v>13</v>
       </c>
       <c r="I44" t="n">
-        <v>1287</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="45">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -2014,56 +2014,56 @@
         <v>1.513739550085731</v>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I45" t="n">
-        <v>1016.4</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6C298</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
         <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>494.9874225687377</v>
+        <v>475.5922896583338</v>
       </c>
       <c r="G46" t="n">
-        <v>1.443982454918312</v>
+        <v>1.622174955742277</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>923.9999999999999</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>S6C421</t>
+          <t>S6C335</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SIRIEMA</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2072,33 +2072,33 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
       </c>
       <c r="F47" t="n">
-        <v>406.6663018461977</v>
+        <v>462.1574964550119</v>
       </c>
       <c r="G47" t="n">
-        <v>1.28900273285943</v>
+        <v>1.5198740867952</v>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
-        <v>2310</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2113,27 +2113,27 @@
         <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>476.3593116545306</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G48" t="n">
-        <v>1.546496658710454</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
-        <v>1188</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2148,22 +2148,22 @@
         <v>5</v>
       </c>
       <c r="F49" t="n">
-        <v>473.8901876161138</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G49" t="n">
-        <v>1.550206914081239</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>1306.8</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2183,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>485.3002327497227</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G50" t="n">
-        <v>1.403136625075225</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H50" t="n">
         <v>13</v>
@@ -2198,7 +2198,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>S5AW05</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2218,10 +2218,10 @@
         <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>450</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G51" t="n">
-        <v>1.44</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H51" t="n">
         <v>14</v>
@@ -2233,47 +2233,47 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>450</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G52" t="n">
-        <v>1.44</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I52" t="n">
-        <v>2032.8</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2288,22 +2288,22 @@
         <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>475.0824972033116</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G53" t="n">
-        <v>1.540128031975307</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H53" t="n">
         <v>14</v>
       </c>
       <c r="I53" t="n">
-        <v>1663.2</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2323,16 +2323,16 @@
         <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>410.0818887794026</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G54" t="n">
-        <v>1.302226153983901</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I54" t="n">
-        <v>1544.4</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="55">
@@ -2373,17 +2373,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2393,51 +2393,51 @@
         <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>410.0818887794026</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G56" t="n">
-        <v>1.302226153983901</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
-        <v>579.6700000000001</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
         <v>5</v>
       </c>
       <c r="F57" t="n">
-        <v>450</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G57" t="n">
-        <v>1.44</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" t="n">
-        <v>2032.8</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="58">
@@ -2478,7 +2478,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2498,32 +2498,32 @@
         <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>494.9874225687377</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G59" t="n">
-        <v>1.443982454918312</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H59" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I59" t="n">
-        <v>1201.2</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2533,27 +2533,27 @@
         <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>408.3762715753413</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G60" t="n">
-        <v>1.367399112076504</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H60" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I60" t="n">
-        <v>970.2</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2568,16 +2568,16 @@
         <v>5</v>
       </c>
       <c r="F61" t="n">
-        <v>458.5508180763908</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G61" t="n">
-        <v>1.505205954657989</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>970.2</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="62">
@@ -2593,11 +2593,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
         <v>5</v>
@@ -2609,10 +2609,10 @@
         <v>1.302226153983901</v>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>1306.8</v>
+        <v>1663.2</v>
       </c>
     </row>
     <row r="63">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
         <v>5</v>
@@ -2644,26 +2644,26 @@
         <v>1.550206914081239</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I63" t="n">
-        <v>1188</v>
+        <v>1544.4</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S6BG14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2673,32 +2673,32 @@
         <v>5</v>
       </c>
       <c r="F64" t="n">
-        <v>473.8901876161138</v>
+        <v>481.2384870768861</v>
       </c>
       <c r="G64" t="n">
-        <v>1.550206914081239</v>
+        <v>1.549056693188665</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I64" t="n">
-        <v>1306.8</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S6BG08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2708,32 +2708,32 @@
         <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>471.0267981311363</v>
+        <v>477.2618000254242</v>
       </c>
       <c r="G65" t="n">
-        <v>1.511823288806421</v>
+        <v>1.534662132252618</v>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I65" t="n">
-        <v>1188</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>S6C421</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SIRIEMA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2743,16 +2743,16 @@
         <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>406.6663018461977</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G66" t="n">
-        <v>1.28900273285943</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H66" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
-        <v>2310</v>
+        <v>460.8700000000001</v>
       </c>
     </row>
     <row r="67">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2784,10 +2784,10 @@
         <v>1.550206914081239</v>
       </c>
       <c r="H67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" t="n">
-        <v>1544.4</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="68">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -2822,23 +2822,23 @@
         <v>14</v>
       </c>
       <c r="I68" t="n">
-        <v>112</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2848,32 +2848,32 @@
         <v>5</v>
       </c>
       <c r="F69" t="n">
-        <v>450</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G69" t="n">
-        <v>1.44</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H69" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I69" t="n">
-        <v>2032.8</v>
+        <v>1544.4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S6BG08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2883,32 +2883,32 @@
         <v>5</v>
       </c>
       <c r="F70" t="n">
-        <v>471.8832645355894</v>
+        <v>477.2618000254242</v>
       </c>
       <c r="G70" t="n">
-        <v>1.410162721706538</v>
+        <v>1.534662132252618</v>
       </c>
       <c r="H70" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>1287</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6BG12</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2918,27 +2918,27 @@
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>467.5533513160689</v>
+        <v>478.1907425638097</v>
       </c>
       <c r="G71" t="n">
-        <v>1.37853030239152</v>
+        <v>1.532140321380832</v>
       </c>
       <c r="H71" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I71" t="n">
-        <v>1386</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2953,27 +2953,27 @@
         <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>410.0818887794026</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G72" t="n">
-        <v>1.302226153983901</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H72" t="n">
         <v>11</v>
       </c>
       <c r="I72" t="n">
-        <v>1306.8</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2988,32 +2988,32 @@
         <v>5</v>
       </c>
       <c r="F73" t="n">
-        <v>476.3593116545306</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G73" t="n">
-        <v>1.546496658710454</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H73" t="n">
         <v>10</v>
       </c>
       <c r="I73" t="n">
-        <v>1188</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S6BG11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -3023,32 +3023,32 @@
         <v>5</v>
       </c>
       <c r="F74" t="n">
-        <v>485.0017403307589</v>
+        <v>479.286553196587</v>
       </c>
       <c r="G74" t="n">
-        <v>1.513739550085731</v>
+        <v>1.542566592537171</v>
       </c>
       <c r="H74" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I74" t="n">
-        <v>1016.4</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S6BG12</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -3058,27 +3058,27 @@
         <v>5</v>
       </c>
       <c r="F75" t="n">
-        <v>484.2538258973078</v>
+        <v>478.1907425638097</v>
       </c>
       <c r="G75" t="n">
-        <v>1.515093704135877</v>
+        <v>1.532140321380832</v>
       </c>
       <c r="H75" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>923.9999999999999</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3093,27 +3093,27 @@
         <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>467.5533513160689</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G76" t="n">
-        <v>1.37853030239152</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I76" t="n">
-        <v>1386</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3128,32 +3128,32 @@
         <v>5</v>
       </c>
       <c r="F77" t="n">
-        <v>489.6578141156763</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G77" t="n">
-        <v>1.441439779313621</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H77" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I77" t="n">
-        <v>1287</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S6C335</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -3163,32 +3163,32 @@
         <v>5</v>
       </c>
       <c r="F78" t="n">
-        <v>462.1574964550119</v>
+        <v>450</v>
       </c>
       <c r="G78" t="n">
-        <v>1.5198740867952</v>
+        <v>1.44</v>
       </c>
       <c r="H78" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I78" t="n">
-        <v>970.2</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>S6C298</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3198,27 +3198,27 @@
         <v>5</v>
       </c>
       <c r="F79" t="n">
-        <v>475.5922896583338</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G79" t="n">
-        <v>1.622174955742277</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I79" t="n">
-        <v>970.2</v>
+        <v>990</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3233,27 +3233,27 @@
         <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>485.0017403307589</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G80" t="n">
-        <v>1.513739550085731</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I80" t="n">
-        <v>1016.4</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3268,32 +3268,32 @@
         <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>484.2538258973078</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G81" t="n">
-        <v>1.515093704135877</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I81" t="n">
-        <v>923.9999999999999</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6C335</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -3303,32 +3303,32 @@
         <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>467.5533513160689</v>
+        <v>462.1574964550119</v>
       </c>
       <c r="G82" t="n">
-        <v>1.37853030239152</v>
+        <v>1.5198740867952</v>
       </c>
       <c r="H82" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
-        <v>1386</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S6C297</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -3338,32 +3338,32 @@
         <v>5</v>
       </c>
       <c r="F83" t="n">
-        <v>489.6578141156763</v>
+        <v>408.3762715753413</v>
       </c>
       <c r="G83" t="n">
-        <v>1.441439779313621</v>
+        <v>1.367399112076504</v>
       </c>
       <c r="H83" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I83" t="n">
-        <v>1287</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S6C335</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3373,32 +3373,32 @@
         <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>462.1574964550119</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G84" t="n">
-        <v>1.5198740867952</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I84" t="n">
-        <v>970.2</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S6C298</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -3408,22 +3408,22 @@
         <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>475.5922896583338</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G85" t="n">
-        <v>1.622174955742277</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H85" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I85" t="n">
-        <v>970.2</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -3443,22 +3443,22 @@
         <v>5</v>
       </c>
       <c r="F86" t="n">
-        <v>485.0017403307589</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G86" t="n">
-        <v>1.513739550085731</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H86" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I86" t="n">
-        <v>1016.4</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -3478,22 +3478,22 @@
         <v>5</v>
       </c>
       <c r="F87" t="n">
-        <v>484.2538258973078</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G87" t="n">
-        <v>1.515093704135877</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I87" t="n">
-        <v>923.9999999999999</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -3513,22 +3513,22 @@
         <v>5</v>
       </c>
       <c r="F88" t="n">
-        <v>467.5533513160689</v>
+        <v>450</v>
       </c>
       <c r="G88" t="n">
-        <v>1.37853030239152</v>
+        <v>1.44</v>
       </c>
       <c r="H88" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>1386</v>
+        <v>990</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -3548,27 +3548,27 @@
         <v>5</v>
       </c>
       <c r="F89" t="n">
-        <v>489.6578141156763</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G89" t="n">
-        <v>1.441439779313621</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H89" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I89" t="n">
-        <v>1287</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S6C335</t>
+          <t>S6BG10</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3583,27 +3583,27 @@
         <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>462.1574964550119</v>
+        <v>479.6506251337161</v>
       </c>
       <c r="G90" t="n">
-        <v>1.5198740867952</v>
+        <v>1.547471669925776</v>
       </c>
       <c r="H90" t="n">
         <v>7</v>
       </c>
       <c r="I90" t="n">
-        <v>970.2</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S6C298</t>
+          <t>S6BG11</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3618,32 +3618,32 @@
         <v>5</v>
       </c>
       <c r="F91" t="n">
-        <v>475.5922896583338</v>
+        <v>479.286553196587</v>
       </c>
       <c r="G91" t="n">
-        <v>1.622174955742277</v>
+        <v>1.542566592537171</v>
       </c>
       <c r="H91" t="n">
         <v>7</v>
       </c>
       <c r="I91" t="n">
-        <v>970.2</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6C297</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -3653,32 +3653,32 @@
         <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>494.9874225687377</v>
+        <v>408.3762715753413</v>
       </c>
       <c r="G92" t="n">
-        <v>1.443982454918312</v>
+        <v>1.367399112076504</v>
       </c>
       <c r="H92" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
-        <v>1201.2</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S6C334</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3688,27 +3688,27 @@
         <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>493.2032472949478</v>
+        <v>458.5508180763908</v>
       </c>
       <c r="G93" t="n">
-        <v>1.4790448823363</v>
+        <v>1.505205954657989</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I93" t="n">
-        <v>1293.6</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3723,27 +3723,27 @@
         <v>5</v>
       </c>
       <c r="F94" t="n">
-        <v>475.0824972033116</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G94" t="n">
-        <v>1.540128031975307</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H94" t="n">
         <v>11</v>
       </c>
       <c r="I94" t="n">
-        <v>1306.8</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3758,32 +3758,32 @@
         <v>5</v>
       </c>
       <c r="F95" t="n">
-        <v>476.3593116545306</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G95" t="n">
-        <v>1.546496658710454</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H95" t="n">
         <v>10</v>
       </c>
       <c r="I95" t="n">
-        <v>1188</v>
+        <v>990</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3793,57 +3793,57 @@
         <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>450</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G96" t="n">
-        <v>1.44</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" t="n">
-        <v>2032.8</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>494.9874225687377</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G97" t="n">
-        <v>1.443982454918312</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I97" t="n">
-        <v>923.9999999999999</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3863,32 +3863,32 @@
         <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>484.2538258973078</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G98" t="n">
-        <v>1.515093704135877</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>1016.4</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3898,32 +3898,32 @@
         <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>450</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G99" t="n">
-        <v>1.44</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H99" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I99" t="n">
-        <v>2032.8</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3933,27 +3933,27 @@
         <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>471.0267981311363</v>
+        <v>450</v>
       </c>
       <c r="G100" t="n">
-        <v>1.511823288806421</v>
+        <v>1.44</v>
       </c>
       <c r="H100" t="n">
         <v>14</v>
       </c>
       <c r="I100" t="n">
-        <v>1300</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3968,67 +3968,67 @@
         <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>475.0824972033116</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G101" t="n">
-        <v>1.540128031975307</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H101" t="n">
         <v>13</v>
       </c>
       <c r="I101" t="n">
-        <v>1544.4</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>450</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G102" t="n">
-        <v>1.44</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H102" t="n">
         <v>14</v>
       </c>
       <c r="I102" t="n">
-        <v>2032.8</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4038,32 +4038,32 @@
         <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>476.3593116545306</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G103" t="n">
-        <v>1.546496658710454</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H103" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I103" t="n">
-        <v>1544.4</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -4073,32 +4073,32 @@
         <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>471.0267981311363</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G104" t="n">
-        <v>1.511823288806421</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H104" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I104" t="n">
-        <v>1300</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -4108,32 +4108,32 @@
         <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>489.6578141156763</v>
+        <v>450</v>
       </c>
       <c r="G105" t="n">
-        <v>1.441439779313621</v>
+        <v>1.44</v>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I105" t="n">
-        <v>990</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>S5AW13</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4143,67 +4143,67 @@
         <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>471.8832645355894</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G106" t="n">
-        <v>1.410162721706538</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H106" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I106" t="n">
-        <v>1089</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>471.0267981311363</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G107" t="n">
-        <v>1.511823288806421</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H107" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I107" t="n">
-        <v>1300</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S6C297</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -4213,32 +4213,32 @@
         <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>476.3593116545306</v>
+        <v>408.3762715753413</v>
       </c>
       <c r="G108" t="n">
-        <v>1.546496658710454</v>
+        <v>1.367399112076504</v>
       </c>
       <c r="H108" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I108" t="n">
-        <v>1188</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S6C335</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -4248,27 +4248,27 @@
         <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>485.0017403307589</v>
+        <v>462.1574964550119</v>
       </c>
       <c r="G109" t="n">
-        <v>1.513739550085731</v>
+        <v>1.5198740867952</v>
       </c>
       <c r="H109" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I109" t="n">
-        <v>1201.2</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4283,32 +4283,32 @@
         <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>494.9874225687377</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G110" t="n">
-        <v>1.443982454918312</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I110" t="n">
-        <v>1293.6</v>
+        <v>1544.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -4318,51 +4318,51 @@
         <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>450</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G111" t="n">
-        <v>1.44</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H111" t="n">
         <v>14</v>
       </c>
       <c r="I111" t="n">
-        <v>2032.8</v>
+        <v>1663.2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>450</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G112" t="n">
-        <v>1.44</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H112" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I112" t="n">
-        <v>2032.8</v>
+        <v>579.6700000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4378,11 +4378,11 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -4394,26 +4394,26 @@
         <v>1.540128031975307</v>
       </c>
       <c r="H113" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I113" t="n">
-        <v>1544.4</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S5AW13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -4423,27 +4423,27 @@
         <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>471.0267981311363</v>
+        <v>471.8832645355894</v>
       </c>
       <c r="G114" t="n">
-        <v>1.511823288806421</v>
+        <v>1.410162721706538</v>
       </c>
       <c r="H114" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I114" t="n">
-        <v>1300</v>
+        <v>990</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4458,32 +4458,32 @@
         <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>493.2032472949478</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G115" t="n">
-        <v>1.4790448823363</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H115" t="n">
         <v>11</v>
       </c>
       <c r="I115" t="n">
-        <v>1016.4</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S5AW13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -4493,27 +4493,27 @@
         <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>484.2538258973078</v>
+        <v>471.8832645355894</v>
       </c>
       <c r="G116" t="n">
-        <v>1.515093704135877</v>
+        <v>1.410162721706538</v>
       </c>
       <c r="H116" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I116" t="n">
-        <v>923.9999999999999</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4522,108 +4522,108 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>493.2032472949478</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G117" t="n">
-        <v>1.4790448823363</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H117" t="n">
         <v>13</v>
       </c>
       <c r="I117" t="n">
-        <v>1201.2</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6BG11</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>494.9874225687377</v>
+        <v>479.286553196587</v>
       </c>
       <c r="G118" t="n">
-        <v>1.443982454918312</v>
+        <v>1.542566592537171</v>
       </c>
       <c r="H118" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I118" t="n">
-        <v>1293.6</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S6BG10</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>493.2032472949478</v>
+        <v>479.6506251337161</v>
       </c>
       <c r="G119" t="n">
-        <v>1.4790448823363</v>
+        <v>1.547471669925776</v>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I119" t="n">
-        <v>923.9999999999999</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -4633,32 +4633,32 @@
         <v>5</v>
       </c>
       <c r="F120" t="n">
-        <v>494.9874225687377</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G120" t="n">
-        <v>1.443982454918312</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H120" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I120" t="n">
-        <v>1016.4</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>S6C421</t>
+          <t>S5AW13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SIRIEMA</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -4668,57 +4668,57 @@
         <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>406.6663018461977</v>
+        <v>471.8832645355894</v>
       </c>
       <c r="G121" t="n">
-        <v>1.28900273285943</v>
+        <v>1.410162721706538</v>
       </c>
       <c r="H121" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I121" t="n">
-        <v>2310</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>494.9874225687377</v>
+        <v>450</v>
       </c>
       <c r="G122" t="n">
-        <v>1.443982454918312</v>
+        <v>1.44</v>
       </c>
       <c r="H122" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I122" t="n">
-        <v>1016.4</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4732,16 +4732,16 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
       </c>
       <c r="F123" t="n">
-        <v>485.0017403307589</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G123" t="n">
-        <v>1.513739550085731</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
@@ -4753,52 +4753,52 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
       </c>
       <c r="F124" t="n">
-        <v>458.5508180763908</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G124" t="n">
-        <v>1.505205954657989</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H124" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I124" t="n">
-        <v>970.2</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>S6C297</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -4808,27 +4808,27 @@
         <v>5</v>
       </c>
       <c r="F125" t="n">
-        <v>408.3762715753413</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G125" t="n">
-        <v>1.367399112076504</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H125" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I125" t="n">
-        <v>970.2</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AW09</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4843,32 +4843,32 @@
         <v>5</v>
       </c>
       <c r="F126" t="n">
-        <v>476.3593116545306</v>
+        <v>485.3002327497227</v>
       </c>
       <c r="G126" t="n">
-        <v>1.546496658710454</v>
+        <v>1.403136625075225</v>
       </c>
       <c r="H126" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I126" t="n">
-        <v>1544.4</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -4878,16 +4878,16 @@
         <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>471.0267981311363</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G127" t="n">
-        <v>1.511823288806421</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H127" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I127" t="n">
-        <v>1300</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="128">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -4928,47 +4928,47 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
       </c>
       <c r="F129" t="n">
-        <v>494.9874225687377</v>
+        <v>450</v>
       </c>
       <c r="G129" t="n">
-        <v>1.443982454918312</v>
+        <v>1.44</v>
       </c>
       <c r="H129" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I129" t="n">
-        <v>1016.4</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>S6C421</t>
+          <t>S6C335</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SIRIEMA</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4983,32 +4983,32 @@
         <v>5</v>
       </c>
       <c r="F130" t="n">
-        <v>406.6663018461977</v>
+        <v>462.1574964550119</v>
       </c>
       <c r="G130" t="n">
-        <v>1.28900273285943</v>
+        <v>1.5198740867952</v>
       </c>
       <c r="H130" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I130" t="n">
-        <v>2310</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S6C298</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -5018,27 +5018,27 @@
         <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>475.0824972033116</v>
+        <v>475.5922896583338</v>
       </c>
       <c r="G131" t="n">
-        <v>1.540128031975307</v>
+        <v>1.622174955742277</v>
       </c>
       <c r="H131" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I131" t="n">
-        <v>1663.2</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S5AW13</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5053,137 +5053,137 @@
         <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>471.0267981311363</v>
+        <v>471.8832645355894</v>
       </c>
       <c r="G132" t="n">
-        <v>1.511823288806421</v>
+        <v>1.410162721706538</v>
       </c>
       <c r="H132" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I132" t="n">
-        <v>1300</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>S6BG08</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
       </c>
       <c r="F133" t="n">
-        <v>477.2618000254242</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G133" t="n">
-        <v>1.534662132252618</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H133" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I133" t="n">
-        <v>1155</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>S6BG13</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SINIMBU</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>482.7769435909113</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G134" t="n">
-        <v>1.562193803712957</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H134" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I134" t="n">
-        <v>1155</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S5AK10</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
       </c>
       <c r="F135" t="n">
-        <v>489.6578141156763</v>
+        <v>494.9874225687377</v>
       </c>
       <c r="G135" t="n">
-        <v>1.441439779313621</v>
+        <v>1.443982454918312</v>
       </c>
       <c r="H135" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I135" t="n">
-        <v>1287</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -5193,27 +5193,27 @@
         <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>485.3002327497227</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G136" t="n">
-        <v>1.403136625075225</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H136" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I136" t="n">
-        <v>1386</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5228,32 +5228,32 @@
         <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>493.2032472949478</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G137" t="n">
-        <v>1.4790448823363</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H137" t="n">
         <v>10</v>
       </c>
       <c r="I137" t="n">
-        <v>923.9999999999999</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -5263,22 +5263,22 @@
         <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>485.0017403307589</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G138" t="n">
-        <v>1.513739550085731</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H138" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I138" t="n">
-        <v>1016.4</v>
+        <v>1663.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5292,68 +5292,68 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>476.3593116545306</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G139" t="n">
-        <v>1.546496658710454</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H139" t="n">
         <v>13</v>
       </c>
       <c r="I139" t="n">
-        <v>1544.4</v>
+        <v>936.0700000000002</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>S3AX04</t>
+          <t>S6BG11</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
       </c>
       <c r="F140" t="n">
-        <v>471.0267981311363</v>
+        <v>479.286553196587</v>
       </c>
       <c r="G140" t="n">
-        <v>1.511823288806421</v>
+        <v>1.542566592537171</v>
       </c>
       <c r="H140" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I140" t="n">
-        <v>1300</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S6BG12</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5362,38 +5362,38 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>450</v>
+        <v>478.1907425638097</v>
       </c>
       <c r="G141" t="n">
-        <v>1.44</v>
+        <v>1.532140321380832</v>
       </c>
       <c r="H141" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I141" t="n">
-        <v>2032.8</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -5403,22 +5403,22 @@
         <v>5</v>
       </c>
       <c r="F142" t="n">
-        <v>489.6578141156763</v>
+        <v>450</v>
       </c>
       <c r="G142" t="n">
-        <v>1.441439779313621</v>
+        <v>1.44</v>
       </c>
       <c r="H142" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I142" t="n">
-        <v>990</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AW05</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -5438,27 +5438,27 @@
         <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>467.5533513160689</v>
+        <v>450</v>
       </c>
       <c r="G143" t="n">
-        <v>1.37853030239152</v>
+        <v>1.44</v>
       </c>
       <c r="H143" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I143" t="n">
-        <v>1089</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S5AK08</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5467,108 +5467,108 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
       </c>
       <c r="F144" t="n">
-        <v>484.2538258973078</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G144" t="n">
-        <v>1.515093704135877</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H144" t="n">
         <v>13</v>
       </c>
       <c r="I144" t="n">
-        <v>1201.2</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
       </c>
       <c r="F145" t="n">
-        <v>494.9874225687377</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G145" t="n">
-        <v>1.443982454918312</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H145" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I145" t="n">
-        <v>1293.6</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>S6C421</t>
+          <t>S3AX04</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SIRIEMA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>406.6663018461977</v>
+        <v>471.0267981311363</v>
       </c>
       <c r="G146" t="n">
-        <v>1.28900273285943</v>
+        <v>1.511823288806421</v>
       </c>
       <c r="H146" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I146" t="n">
-        <v>2310</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S5AW14</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -5578,32 +5578,32 @@
         <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>475.0824972033116</v>
+        <v>467.5533513160689</v>
       </c>
       <c r="G147" t="n">
-        <v>1.540128031975307</v>
+        <v>1.37853030239152</v>
       </c>
       <c r="H147" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I147" t="n">
-        <v>1306.8</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>S3AX01</t>
+          <t>S5AW10</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>PIRACEMA_GLEBA PULADOR - DX</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -5613,92 +5613,92 @@
         <v>5</v>
       </c>
       <c r="F148" t="n">
-        <v>476.3593116545306</v>
+        <v>489.6578141156763</v>
       </c>
       <c r="G148" t="n">
-        <v>1.546496658710454</v>
+        <v>1.441439779313621</v>
       </c>
       <c r="H148" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I148" t="n">
-        <v>1188</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S6BG08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
       </c>
       <c r="F149" t="n">
-        <v>410.0818887794026</v>
+        <v>477.2618000254242</v>
       </c>
       <c r="G149" t="n">
-        <v>1.302226153983901</v>
+        <v>1.534662132252618</v>
       </c>
       <c r="H149" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I149" t="n">
-        <v>1306.8</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S6BG14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>SINIMBU</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>473.8901876161138</v>
+        <v>481.2384870768861</v>
       </c>
       <c r="G150" t="n">
-        <v>1.550206914081239</v>
+        <v>1.549056693188665</v>
       </c>
       <c r="H150" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I150" t="n">
-        <v>1188</v>
+        <v>800</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>S3AX03</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -5708,32 +5708,32 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
       </c>
       <c r="F151" t="n">
-        <v>410.0818887794026</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G151" t="n">
-        <v>1.302226153983901</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H151" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I151" t="n">
-        <v>817.2700000000002</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>S3AX06</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5743,42 +5743,42 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
       </c>
       <c r="F152" t="n">
-        <v>473.8901876161138</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G152" t="n">
-        <v>1.550206914081239</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H152" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I152" t="n">
-        <v>1544.4</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>S6C298</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -5788,32 +5788,32 @@
         <v>5</v>
       </c>
       <c r="F153" t="n">
-        <v>475.5922896583338</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G153" t="n">
-        <v>1.622174955742277</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H153" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I153" t="n">
-        <v>970.2</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>S6C335</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -5823,137 +5823,137 @@
         <v>5</v>
       </c>
       <c r="F154" t="n">
-        <v>462.1574964550119</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G154" t="n">
-        <v>1.5198740867952</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H154" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I154" t="n">
-        <v>970.2</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S6BX01</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SANTO ANTONIO SALIG.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
       </c>
       <c r="F155" t="n">
-        <v>467.5533513160689</v>
+        <v>450</v>
       </c>
       <c r="G155" t="n">
-        <v>1.37853030239152</v>
+        <v>1.44</v>
       </c>
       <c r="H155" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I155" t="n">
-        <v>1089</v>
+        <v>2032.8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
       </c>
       <c r="F156" t="n">
-        <v>485.3002327497227</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G156" t="n">
-        <v>1.403136625075225</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H156" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I156" t="n">
-        <v>990</v>
+        <v>1293.6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>S6C334</t>
+          <t>S5AK08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
       </c>
       <c r="F157" t="n">
-        <v>458.5508180763908</v>
+        <v>484.2538258973078</v>
       </c>
       <c r="G157" t="n">
-        <v>1.505205954657989</v>
+        <v>1.515093704135877</v>
       </c>
       <c r="H157" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I157" t="n">
-        <v>970.2</v>
+        <v>1201.2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>S6C335</t>
+          <t>S5AK09</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FORTALEZA</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -5963,32 +5963,32 @@
         <v>5</v>
       </c>
       <c r="F158" t="n">
-        <v>462.1574964550119</v>
+        <v>485.0017403307589</v>
       </c>
       <c r="G158" t="n">
-        <v>1.5198740867952</v>
+        <v>1.513739550085731</v>
       </c>
       <c r="H158" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I158" t="n">
-        <v>970.2</v>
+        <v>923.9999999999999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>S5AW14</t>
+          <t>S5AK05</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>TURVO III (LEX)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -5998,32 +5998,32 @@
         <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>467.5533513160689</v>
+        <v>493.2032472949478</v>
       </c>
       <c r="G159" t="n">
-        <v>1.37853030239152</v>
+        <v>1.4790448823363</v>
       </c>
       <c r="H159" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I159" t="n">
-        <v>1386</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -6033,102 +6033,102 @@
         <v>5</v>
       </c>
       <c r="F160" t="n">
-        <v>485.3002327497227</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G160" t="n">
-        <v>1.403136625075225</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I160" t="n">
-        <v>1287</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>S5AK05</t>
+          <t>S3AX01</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>493.2032472949478</v>
+        <v>476.3593116545306</v>
       </c>
       <c r="G161" t="n">
-        <v>1.4790448823363</v>
+        <v>1.546496658710454</v>
       </c>
       <c r="H161" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I161" t="n">
-        <v>1016.4</v>
+        <v>1663.2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S3AX02</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Pastori</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>485.0017403307589</v>
+        <v>475.0824972033116</v>
       </c>
       <c r="G162" t="n">
-        <v>1.513739550085731</v>
+        <v>1.540128031975307</v>
       </c>
       <c r="H162" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I162" t="n">
-        <v>923.9999999999999</v>
+        <v>1544.4</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -6138,32 +6138,32 @@
         <v>5</v>
       </c>
       <c r="F163" t="n">
-        <v>450</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G163" t="n">
-        <v>1.44</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H163" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I163" t="n">
-        <v>2032.8</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>S5AW10</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Rampazo</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -6173,32 +6173,32 @@
         <v>5</v>
       </c>
       <c r="F164" t="n">
-        <v>489.6578141156763</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G164" t="n">
-        <v>1.441439779313621</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H164" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I164" t="n">
-        <v>1386</v>
+        <v>1306.8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>S5AW09</t>
+          <t>S6C421</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PIRACEMA_GLEBA PULADOR - DX</t>
+          <t>SIRIEMA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Pastori</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -6208,27 +6208,27 @@
         <v>5</v>
       </c>
       <c r="F165" t="n">
-        <v>485.3002327497227</v>
+        <v>406.6663018461977</v>
       </c>
       <c r="G165" t="n">
-        <v>1.403136625075225</v>
+        <v>1.28900273285943</v>
       </c>
       <c r="H165" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I165" t="n">
-        <v>1287</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>S5AK09</t>
+          <t>S3AX06</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6237,33 +6237,33 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>485.0017403307589</v>
+        <v>473.8901876161138</v>
       </c>
       <c r="G166" t="n">
-        <v>1.513739550085731</v>
+        <v>1.550206914081239</v>
       </c>
       <c r="H166" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I166" t="n">
-        <v>1201.2</v>
+        <v>1663.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>S5AK10</t>
+          <t>S3AX03</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TURVO III (LEX)</t>
+          <t>INDIANA II</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6272,33 +6272,33 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>494.9874225687377</v>
+        <v>410.0818887794026</v>
       </c>
       <c r="G167" t="n">
-        <v>1.443982454918312</v>
+        <v>1.302226153983901</v>
       </c>
       <c r="H167" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I167" t="n">
-        <v>1293.6</v>
+        <v>817.2700000000002</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>S6BX01</t>
+          <t>S6C297</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SANTO ANTONIO SALIG.</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6313,32 +6313,32 @@
         <v>5</v>
       </c>
       <c r="F168" t="n">
-        <v>450</v>
+        <v>408.3762715753413</v>
       </c>
       <c r="G168" t="n">
-        <v>1.44</v>
+        <v>1.367399112076504</v>
       </c>
       <c r="H168" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I168" t="n">
-        <v>2032.8</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>S3AX02</t>
+          <t>S6C334</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INDIANA II</t>
+          <t>FORTALEZA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Rampazo</t>
+          <t>Tover</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -6348,16 +6348,16 @@
         <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>475.0824972033116</v>
+        <v>458.5508180763908</v>
       </c>
       <c r="G169" t="n">
-        <v>1.540128031975307</v>
+        <v>1.505205954657989</v>
       </c>
       <c r="H169" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I169" t="n">
-        <v>1188</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="170">
@@ -6393,6 +6393,111 @@
       </c>
       <c r="I170" t="n">
         <v>1300</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>S3AX02</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>INDIANA II</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rampazo</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>475.0824972033116</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.540128031975307</v>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>S5AK10</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TURVO III (LEX)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Pastori</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>31</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>494.9874225687377</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.443982454918312</v>
+      </c>
+      <c r="H172" t="n">
+        <v>13</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1201.2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>S5AK08</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TURVO III (LEX)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Pastori</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>31</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>484.2538258973078</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.515093704135877</v>
+      </c>
+      <c r="H173" t="n">
+        <v>14</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1293.6</v>
       </c>
     </row>
   </sheetData>
